--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:06:00+00:00</t>
+    <t>2024-12-17T21:15:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:15:49+00:00</t>
+    <t>2024-12-17T21:31:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3870" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3871" uniqueCount="337">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:31:39+00:00</t>
+    <t>2024-12-17T21:48:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Captures diagnostic test results along with sample information to determine TB infection status.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1259,39 +1262,41 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>3</v>
@@ -1299,26 +1304,26 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1376,112 +1381,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">
@@ -1497,10 +1502,10 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>20</v>
@@ -1512,13 +1517,13 @@
         <v>20</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1569,13 +1574,13 @@
         <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>20</v>
@@ -1586,10 +1591,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1597,10 +1602,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>20</v>
@@ -1612,7 +1617,7 @@
         <v>20</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1665,13 +1670,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -1682,10 +1687,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1693,10 +1698,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>20</v>
@@ -1708,13 +1713,13 @@
         <v>20</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1741,11 +1746,11 @@
         <v>20</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>20</v>
@@ -1763,13 +1768,13 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>20</v>
@@ -1780,10 +1785,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1791,10 +1796,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>20</v>
@@ -1806,13 +1811,13 @@
         <v>20</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1839,11 +1844,11 @@
         <v>20</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>20</v>
@@ -1861,13 +1866,13 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
@@ -1878,10 +1883,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1889,10 +1894,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -1904,13 +1909,13 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1937,11 +1942,11 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>20</v>
@@ -1959,13 +1964,13 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
@@ -1976,10 +1981,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1987,10 +1992,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -2002,13 +2007,13 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -2035,11 +2040,11 @@
         <v>20</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y7" s="2"/>
       <c r="Z7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>20</v>
@@ -2057,13 +2062,13 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>20</v>
@@ -2074,10 +2079,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2085,10 +2090,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>20</v>
@@ -2100,13 +2105,13 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2133,11 +2138,11 @@
         <v>20</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y8" s="2"/>
       <c r="Z8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA8" t="s" s="2">
         <v>20</v>
@@ -2155,13 +2160,13 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>20</v>
@@ -2172,10 +2177,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2183,10 +2188,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>20</v>
@@ -2198,13 +2203,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2231,11 +2236,11 @@
         <v>20</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>20</v>
@@ -2253,13 +2258,13 @@
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>20</v>
@@ -2270,10 +2275,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2281,10 +2286,10 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
@@ -2296,13 +2301,13 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2329,11 +2334,11 @@
         <v>20</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y10" s="2"/>
       <c r="Z10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>20</v>
@@ -2351,13 +2356,13 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>20</v>
@@ -2368,10 +2373,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2379,10 +2384,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
@@ -2394,13 +2399,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2427,11 +2432,11 @@
         <v>20</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y11" s="2"/>
       <c r="Z11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>20</v>
@@ -2449,13 +2454,13 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>20</v>
@@ -2466,10 +2471,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2477,10 +2482,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
@@ -2492,13 +2497,13 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2525,11 +2530,11 @@
         <v>20</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>20</v>
@@ -2547,13 +2552,13 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>20</v>
@@ -2564,10 +2569,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2575,10 +2580,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
@@ -2590,13 +2595,13 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2623,11 +2628,11 @@
         <v>20</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>20</v>
@@ -2645,13 +2650,13 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>20</v>
@@ -2662,10 +2667,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2673,10 +2678,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>20</v>
@@ -2688,13 +2693,13 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2721,11 +2726,11 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>20</v>
@@ -2743,13 +2748,13 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>20</v>
@@ -2760,10 +2765,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2771,10 +2776,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>20</v>
@@ -2786,13 +2791,13 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2819,11 +2824,11 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
@@ -2841,13 +2846,13 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>20</v>
@@ -2858,10 +2863,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2869,10 +2874,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>20</v>
@@ -2884,13 +2889,13 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2917,11 +2922,11 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
@@ -2939,13 +2944,13 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
@@ -2956,10 +2961,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2967,10 +2972,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>20</v>
@@ -2982,13 +2987,13 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3039,13 +3044,13 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>20</v>
@@ -3056,10 +3061,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3067,10 +3072,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>20</v>
@@ -3082,13 +3087,13 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3139,13 +3144,13 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>20</v>
@@ -3156,10 +3161,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3167,10 +3172,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>20</v>
@@ -3182,13 +3187,13 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3215,11 +3220,11 @@
         <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>20</v>
@@ -3237,13 +3242,13 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>20</v>
@@ -3254,10 +3259,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3265,10 +3270,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -3280,13 +3285,13 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3313,11 +3318,11 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
@@ -3335,13 +3340,13 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>20</v>
@@ -3352,10 +3357,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3363,10 +3368,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>20</v>
@@ -3378,13 +3383,13 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3435,13 +3440,13 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>20</v>
@@ -3452,10 +3457,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3463,10 +3468,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>20</v>
@@ -3478,13 +3483,13 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3511,11 +3516,11 @@
         <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>20</v>
@@ -3533,13 +3538,13 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>20</v>
@@ -3550,10 +3555,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3561,10 +3566,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
@@ -3576,13 +3581,13 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3633,13 +3638,13 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>20</v>
@@ -3650,10 +3655,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3661,10 +3666,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>20</v>
@@ -3676,13 +3681,13 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3733,13 +3738,13 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>20</v>
@@ -3750,10 +3755,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3761,10 +3766,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>20</v>
@@ -3776,13 +3781,13 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3833,13 +3838,13 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>20</v>
@@ -3850,10 +3855,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3861,10 +3866,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>20</v>
@@ -3876,13 +3881,13 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3933,13 +3938,13 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>20</v>
@@ -3950,10 +3955,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3961,10 +3966,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>20</v>
@@ -3976,13 +3981,13 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4033,13 +4038,13 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>20</v>
@@ -4050,10 +4055,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4061,10 +4066,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -4076,13 +4081,13 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4133,13 +4138,13 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
@@ -4150,10 +4155,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4161,10 +4166,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
@@ -4176,13 +4181,13 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4233,13 +4238,13 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
@@ -4250,10 +4255,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4261,10 +4266,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
@@ -4276,13 +4281,13 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4333,13 +4338,13 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
@@ -4350,10 +4355,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4361,10 +4366,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>20</v>
@@ -4376,13 +4381,13 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4433,13 +4438,13 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>20</v>
@@ -4450,10 +4455,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4461,10 +4466,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>20</v>
@@ -4476,13 +4481,13 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4533,13 +4538,13 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>20</v>
@@ -4550,10 +4555,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4561,10 +4566,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>20</v>
@@ -4576,13 +4581,13 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4633,13 +4638,13 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
@@ -4650,10 +4655,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4661,10 +4666,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
@@ -4676,13 +4681,13 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4733,13 +4738,13 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
@@ -4750,10 +4755,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4761,10 +4766,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
@@ -4776,13 +4781,13 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4833,13 +4838,13 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>20</v>
@@ -4850,10 +4855,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4861,10 +4866,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>20</v>
@@ -4876,13 +4881,13 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4933,13 +4938,13 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
@@ -4950,10 +4955,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4961,10 +4966,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>20</v>
@@ -4976,13 +4981,13 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5033,13 +5038,13 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>20</v>
@@ -5050,10 +5055,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5061,10 +5066,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
@@ -5076,13 +5081,13 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5109,11 +5114,11 @@
         <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -5131,13 +5136,13 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>20</v>
@@ -5148,10 +5153,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5159,10 +5164,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>20</v>
@@ -5174,13 +5179,13 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5207,11 +5212,11 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -5229,13 +5234,13 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>20</v>
@@ -5246,10 +5251,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5257,10 +5262,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>20</v>
@@ -5272,13 +5277,13 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5329,13 +5334,13 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
@@ -5346,10 +5351,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5357,10 +5362,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>20</v>
@@ -5372,13 +5377,13 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5405,11 +5410,11 @@
         <v>20</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>20</v>
@@ -5427,13 +5432,13 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>20</v>
@@ -5444,10 +5449,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5455,10 +5460,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>20</v>
@@ -5470,13 +5475,13 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5527,13 +5532,13 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>20</v>
@@ -5544,10 +5549,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5555,10 +5560,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>20</v>
@@ -5570,13 +5575,13 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -5603,11 +5608,11 @@
         <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
@@ -5625,13 +5630,13 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>20</v>
@@ -5642,10 +5647,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5653,10 +5658,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
@@ -5668,13 +5673,13 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5701,11 +5706,11 @@
         <v>20</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>20</v>
@@ -5723,13 +5728,13 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>20</v>
@@ -5740,10 +5745,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5751,10 +5756,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>20</v>
@@ -5766,13 +5771,13 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -5799,11 +5804,11 @@
         <v>20</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>20</v>
@@ -5821,13 +5826,13 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>20</v>
@@ -5838,10 +5843,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5849,10 +5854,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
@@ -5864,13 +5869,13 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -5897,11 +5902,11 @@
         <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>20</v>
@@ -5919,13 +5924,13 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
@@ -5936,10 +5941,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -5947,10 +5952,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>20</v>
@@ -5962,13 +5967,13 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -5995,11 +6000,11 @@
         <v>20</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>20</v>
@@ -6017,13 +6022,13 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>20</v>
@@ -6034,10 +6039,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6045,10 +6050,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
@@ -6060,13 +6065,13 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6093,11 +6098,11 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -6115,13 +6120,13 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>20</v>
@@ -6132,10 +6137,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6143,10 +6148,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>20</v>
@@ -6158,13 +6163,13 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6191,11 +6196,11 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -6213,13 +6218,13 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>20</v>
@@ -6230,10 +6235,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6241,10 +6246,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>20</v>
@@ -6256,13 +6261,13 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6289,11 +6294,11 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -6311,13 +6316,13 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>20</v>
@@ -6328,10 +6333,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6339,10 +6344,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>20</v>
@@ -6354,13 +6359,13 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6387,11 +6392,11 @@
         <v>20</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>20</v>
@@ -6409,13 +6414,13 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>20</v>
@@ -6426,10 +6431,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6437,10 +6442,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>20</v>
@@ -6452,13 +6457,13 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6485,11 +6490,11 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -6507,13 +6512,13 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>20</v>
@@ -6524,10 +6529,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -6535,10 +6540,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>20</v>
@@ -6550,13 +6555,13 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -6583,11 +6588,11 @@
         <v>20</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>20</v>
@@ -6605,13 +6610,13 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>20</v>
@@ -6622,10 +6627,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -6633,10 +6638,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>20</v>
@@ -6648,13 +6653,13 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -6681,11 +6686,11 @@
         <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>20</v>
@@ -6703,13 +6708,13 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>20</v>
@@ -6720,10 +6725,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -6731,10 +6736,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>20</v>
@@ -6746,13 +6751,13 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -6779,11 +6784,11 @@
         <v>20</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>20</v>
@@ -6801,13 +6806,13 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>20</v>
@@ -6818,10 +6823,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -6829,10 +6834,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>20</v>
@@ -6844,13 +6849,13 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -6901,13 +6906,13 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>20</v>
@@ -6918,10 +6923,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -6929,10 +6934,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>20</v>
@@ -6944,13 +6949,13 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7001,13 +7006,13 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>20</v>
@@ -7018,10 +7023,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7029,10 +7034,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>20</v>
@@ -7044,13 +7049,13 @@
         <v>20</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7101,13 +7106,13 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>20</v>
@@ -7118,10 +7123,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7129,10 +7134,10 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>20</v>
@@ -7144,13 +7149,13 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7177,11 +7182,11 @@
         <v>20</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>20</v>
@@ -7199,13 +7204,13 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>20</v>
@@ -7216,10 +7221,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7227,10 +7232,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>20</v>
@@ -7242,13 +7247,13 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -7275,11 +7280,11 @@
         <v>20</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>20</v>
@@ -7297,13 +7302,13 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>20</v>
@@ -7314,10 +7319,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7325,10 +7330,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>20</v>
@@ -7340,13 +7345,13 @@
         <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -7373,11 +7378,11 @@
         <v>20</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>20</v>
@@ -7395,13 +7400,13 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>20</v>
@@ -7412,10 +7417,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7423,10 +7428,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>20</v>
@@ -7438,13 +7443,13 @@
         <v>20</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -7495,13 +7500,13 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>20</v>
@@ -7512,10 +7517,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -7523,10 +7528,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>20</v>
@@ -7538,13 +7543,13 @@
         <v>20</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -7595,13 +7600,13 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>20</v>
@@ -7612,10 +7617,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -7623,10 +7628,10 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>20</v>
@@ -7638,13 +7643,13 @@
         <v>20</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -7671,11 +7676,11 @@
         <v>20</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>20</v>
@@ -7693,13 +7698,13 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>20</v>
@@ -7710,10 +7715,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -7721,10 +7726,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>20</v>
@@ -7736,13 +7741,13 @@
         <v>20</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -7793,13 +7798,13 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>20</v>
@@ -7810,10 +7815,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -7821,10 +7826,10 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>20</v>
@@ -7836,13 +7841,13 @@
         <v>20</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -7869,11 +7874,11 @@
         <v>20</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>20</v>
@@ -7891,13 +7896,13 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>20</v>
@@ -7908,10 +7913,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -7919,10 +7924,10 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>20</v>
@@ -7934,13 +7939,13 @@
         <v>20</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -7967,11 +7972,11 @@
         <v>20</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>20</v>
@@ -7989,13 +7994,13 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>20</v>
@@ -8006,10 +8011,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8017,10 +8022,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>20</v>
@@ -8032,13 +8037,13 @@
         <v>20</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -8065,11 +8070,11 @@
         <v>20</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y68" s="2"/>
       <c r="Z68" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>20</v>
@@ -8087,13 +8092,13 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>20</v>
@@ -8104,10 +8109,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8115,10 +8120,10 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>20</v>
@@ -8130,13 +8135,13 @@
         <v>20</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8163,11 +8168,11 @@
         <v>20</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>20</v>
@@ -8185,13 +8190,13 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>20</v>
@@ -8202,10 +8207,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8213,10 +8218,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>20</v>
@@ -8228,13 +8233,13 @@
         <v>20</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -8261,11 +8266,11 @@
         <v>20</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>20</v>
@@ -8283,13 +8288,13 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>20</v>
@@ -8300,10 +8305,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -8311,10 +8316,10 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>20</v>
@@ -8326,13 +8331,13 @@
         <v>20</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -8359,11 +8364,11 @@
         <v>20</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>20</v>
@@ -8381,13 +8386,13 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>20</v>
@@ -8398,10 +8403,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -8409,10 +8414,10 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>20</v>
@@ -8424,13 +8429,13 @@
         <v>20</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -8457,11 +8462,11 @@
         <v>20</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>20</v>
@@ -8479,13 +8484,13 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>20</v>
@@ -8496,10 +8501,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -8507,10 +8512,10 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>20</v>
@@ -8522,13 +8527,13 @@
         <v>20</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -8555,11 +8560,11 @@
         <v>20</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y73" s="2"/>
       <c r="Z73" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>20</v>
@@ -8577,13 +8582,13 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>20</v>
@@ -8594,10 +8599,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -8605,10 +8610,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>20</v>
@@ -8620,13 +8625,13 @@
         <v>20</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -8677,13 +8682,13 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>20</v>
@@ -8694,10 +8699,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -8705,10 +8710,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>20</v>
@@ -8720,13 +8725,13 @@
         <v>20</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -8777,13 +8782,13 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>20</v>
@@ -8794,10 +8799,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -8805,10 +8810,10 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>20</v>
@@ -8820,13 +8825,13 @@
         <v>20</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -8853,11 +8858,11 @@
         <v>20</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y76" s="2"/>
       <c r="Z76" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>20</v>
@@ -8875,13 +8880,13 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>20</v>
@@ -8892,10 +8897,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -8903,10 +8908,10 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>20</v>
@@ -8918,13 +8923,13 @@
         <v>20</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -8951,11 +8956,11 @@
         <v>20</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y77" s="2"/>
       <c r="Z77" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>20</v>
@@ -8973,13 +8978,13 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>20</v>
@@ -8990,10 +8995,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -9001,10 +9006,10 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>20</v>
@@ -9016,13 +9021,13 @@
         <v>20</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -9049,11 +9054,11 @@
         <v>20</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y78" s="2"/>
       <c r="Z78" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>20</v>
@@ -9071,13 +9076,13 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>20</v>
@@ -9088,10 +9093,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9099,10 +9104,10 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>20</v>
@@ -9114,13 +9119,13 @@
         <v>20</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -9147,11 +9152,11 @@
         <v>20</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y79" s="2"/>
       <c r="Z79" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>20</v>
@@ -9169,13 +9174,13 @@
         <v>20</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>20</v>
@@ -9186,10 +9191,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -9197,10 +9202,10 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>20</v>
@@ -9212,13 +9217,13 @@
         <v>20</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -9245,11 +9250,11 @@
         <v>20</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>20</v>
@@ -9267,13 +9272,13 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>20</v>
@@ -9284,10 +9289,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -9295,10 +9300,10 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>20</v>
@@ -9310,13 +9315,13 @@
         <v>20</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -9343,11 +9348,11 @@
         <v>20</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y81" s="2"/>
       <c r="Z81" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>20</v>
@@ -9365,13 +9370,13 @@
         <v>20</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>20</v>
@@ -9382,10 +9387,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -9393,10 +9398,10 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>20</v>
@@ -9408,13 +9413,13 @@
         <v>20</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -9465,13 +9470,13 @@
         <v>20</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>20</v>
@@ -9482,10 +9487,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -9493,10 +9498,10 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>20</v>
@@ -9508,13 +9513,13 @@
         <v>20</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -9565,13 +9570,13 @@
         <v>20</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>20</v>
@@ -9582,10 +9587,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -9593,10 +9598,10 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>20</v>
@@ -9608,13 +9613,13 @@
         <v>20</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -9641,11 +9646,11 @@
         <v>20</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y84" s="2"/>
       <c r="Z84" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>20</v>
@@ -9663,13 +9668,13 @@
         <v>20</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>20</v>
@@ -9680,10 +9685,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -9691,10 +9696,10 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>20</v>
@@ -9706,13 +9711,13 @@
         <v>20</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -9763,13 +9768,13 @@
         <v>20</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>20</v>
@@ -9780,10 +9785,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -9791,10 +9796,10 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>20</v>
@@ -9806,13 +9811,13 @@
         <v>20</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -9839,11 +9844,11 @@
         <v>20</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y86" s="2"/>
       <c r="Z86" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>20</v>
@@ -9861,13 +9866,13 @@
         <v>20</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>20</v>
@@ -9878,10 +9883,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -9889,10 +9894,10 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>20</v>
@@ -9904,13 +9909,13 @@
         <v>20</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -9961,13 +9966,13 @@
         <v>20</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>20</v>
@@ -9978,10 +9983,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -9989,10 +9994,10 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>20</v>
@@ -10004,13 +10009,13 @@
         <v>20</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -10037,11 +10042,11 @@
         <v>20</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y88" s="2"/>
       <c r="Z88" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>20</v>
@@ -10059,13 +10064,13 @@
         <v>20</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>20</v>
@@ -10076,10 +10081,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -10087,10 +10092,10 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>20</v>
@@ -10102,13 +10107,13 @@
         <v>20</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -10159,13 +10164,13 @@
         <v>20</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>20</v>
@@ -10176,10 +10181,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -10187,10 +10192,10 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>20</v>
@@ -10202,13 +10207,13 @@
         <v>20</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -10235,11 +10240,11 @@
         <v>20</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y90" s="2"/>
       <c r="Z90" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>20</v>
@@ -10257,13 +10262,13 @@
         <v>20</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>20</v>
@@ -10274,10 +10279,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -10285,10 +10290,10 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>20</v>
@@ -10300,13 +10305,13 @@
         <v>20</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -10333,11 +10338,11 @@
         <v>20</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y91" s="2"/>
       <c r="Z91" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>20</v>
@@ -10355,13 +10360,13 @@
         <v>20</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>20</v>
@@ -10372,10 +10377,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -10383,10 +10388,10 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>20</v>
@@ -10398,13 +10403,13 @@
         <v>20</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -10455,13 +10460,13 @@
         <v>20</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>20</v>
@@ -10472,10 +10477,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -10483,10 +10488,10 @@
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>20</v>
@@ -10498,13 +10503,13 @@
         <v>20</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -10531,11 +10536,11 @@
         <v>20</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y93" s="2"/>
       <c r="Z93" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>20</v>
@@ -10553,13 +10558,13 @@
         <v>20</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>20</v>
@@ -10570,10 +10575,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -10581,10 +10586,10 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>20</v>
@@ -10596,13 +10601,13 @@
         <v>20</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -10629,11 +10634,11 @@
         <v>20</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y94" s="2"/>
       <c r="Z94" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>20</v>
@@ -10651,13 +10656,13 @@
         <v>20</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>20</v>
@@ -10668,10 +10673,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -10679,10 +10684,10 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>20</v>
@@ -10694,13 +10699,13 @@
         <v>20</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -10751,13 +10756,13 @@
         <v>20</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>20</v>
@@ -10768,10 +10773,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -10779,10 +10784,10 @@
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>20</v>
@@ -10794,13 +10799,13 @@
         <v>20</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -10827,11 +10832,11 @@
         <v>20</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y96" s="2"/>
       <c r="Z96" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>20</v>
@@ -10849,13 +10854,13 @@
         <v>20</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>20</v>
@@ -10866,10 +10871,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -10877,10 +10882,10 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>20</v>
@@ -10892,13 +10897,13 @@
         <v>20</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -10925,11 +10930,11 @@
         <v>20</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y97" s="2"/>
       <c r="Z97" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>20</v>
@@ -10947,13 +10952,13 @@
         <v>20</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>20</v>
@@ -10964,10 +10969,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -10975,10 +10980,10 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>20</v>
@@ -10990,13 +10995,13 @@
         <v>20</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -11047,13 +11052,13 @@
         <v>20</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>20</v>
@@ -11064,10 +11069,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -11075,10 +11080,10 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>20</v>
@@ -11090,13 +11095,13 @@
         <v>20</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -11123,11 +11128,11 @@
         <v>20</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y99" s="2"/>
       <c r="Z99" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>20</v>
@@ -11145,13 +11150,13 @@
         <v>20</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>20</v>
@@ -11162,10 +11167,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -11173,10 +11178,10 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>20</v>
@@ -11188,13 +11193,13 @@
         <v>20</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -11221,11 +11226,11 @@
         <v>20</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y100" s="2"/>
       <c r="Z100" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>20</v>
@@ -11243,13 +11248,13 @@
         <v>20</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>20</v>
@@ -11260,10 +11265,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -11271,10 +11276,10 @@
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>20</v>
@@ -11286,13 +11291,13 @@
         <v>20</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -11343,13 +11348,13 @@
         <v>20</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>20</v>
@@ -11360,10 +11365,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -11371,10 +11376,10 @@
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>20</v>
@@ -11386,13 +11391,13 @@
         <v>20</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -11443,13 +11448,13 @@
         <v>20</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>20</v>
@@ -11460,10 +11465,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -11471,10 +11476,10 @@
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>20</v>
@@ -11486,13 +11491,13 @@
         <v>20</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -11543,13 +11548,13 @@
         <v>20</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>20</v>
@@ -11560,10 +11565,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -11571,10 +11576,10 @@
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>20</v>
@@ -11586,13 +11591,13 @@
         <v>20</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -11619,11 +11624,11 @@
         <v>20</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y104" s="2"/>
       <c r="Z104" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>20</v>
@@ -11641,13 +11646,13 @@
         <v>20</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>20</v>
@@ -11658,10 +11663,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -11669,10 +11674,10 @@
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>20</v>
@@ -11684,13 +11689,13 @@
         <v>20</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -11717,11 +11722,11 @@
         <v>20</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y105" s="2"/>
       <c r="Z105" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>20</v>
@@ -11739,13 +11744,13 @@
         <v>20</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>20</v>
@@ -11756,10 +11761,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -11767,10 +11772,10 @@
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>20</v>
@@ -11782,13 +11787,13 @@
         <v>20</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -11839,13 +11844,13 @@
         <v>20</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>20</v>
@@ -11856,10 +11861,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -11867,10 +11872,10 @@
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>20</v>
@@ -11882,13 +11887,13 @@
         <v>20</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -11915,11 +11920,11 @@
         <v>20</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y107" s="2"/>
       <c r="Z107" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>20</v>
@@ -11937,13 +11942,13 @@
         <v>20</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>20</v>
@@ -11954,10 +11959,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -11965,10 +11970,10 @@
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>20</v>
@@ -11980,13 +11985,13 @@
         <v>20</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -12037,13 +12042,13 @@
         <v>20</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>20</v>
@@ -12054,10 +12059,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -12065,10 +12070,10 @@
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>20</v>
@@ -12080,13 +12085,13 @@
         <v>20</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -12137,13 +12142,13 @@
         <v>20</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>20</v>
@@ -12154,10 +12159,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -12165,10 +12170,10 @@
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>20</v>
@@ -12180,13 +12185,13 @@
         <v>20</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -12213,11 +12218,11 @@
         <v>20</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y110" s="2"/>
       <c r="Z110" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>20</v>
@@ -12235,13 +12240,13 @@
         <v>20</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>20</v>
@@ -12252,10 +12257,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -12263,10 +12268,10 @@
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>20</v>
@@ -12278,13 +12283,13 @@
         <v>20</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -12335,13 +12340,13 @@
         <v>20</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>20</v>
@@ -12352,10 +12357,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -12363,10 +12368,10 @@
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>20</v>
@@ -12378,13 +12383,13 @@
         <v>20</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -12411,11 +12416,11 @@
         <v>20</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y112" s="2"/>
       <c r="Z112" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>20</v>
@@ -12433,13 +12438,13 @@
         <v>20</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI112" t="s" s="2">
         <v>20</v>
@@ -12450,10 +12455,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -12461,10 +12466,10 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>20</v>
@@ -12476,13 +12481,13 @@
         <v>20</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -12509,11 +12514,11 @@
         <v>20</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y113" s="2"/>
       <c r="Z113" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>20</v>
@@ -12531,13 +12536,13 @@
         <v>20</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH113" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI113" t="s" s="2">
         <v>20</v>
@@ -12548,10 +12553,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -12559,10 +12564,10 @@
       </c>
       <c r="E114" s="2"/>
       <c r="F114" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>20</v>
@@ -12574,13 +12579,13 @@
         <v>20</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -12631,13 +12636,13 @@
         <v>20</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>20</v>
@@ -12648,10 +12653,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -12659,10 +12664,10 @@
       </c>
       <c r="E115" s="2"/>
       <c r="F115" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>20</v>
@@ -12674,13 +12679,13 @@
         <v>20</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -12707,11 +12712,11 @@
         <v>20</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y115" s="2"/>
       <c r="Z115" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>20</v>
@@ -12729,13 +12734,13 @@
         <v>20</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI115" t="s" s="2">
         <v>20</v>
@@ -12746,10 +12751,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -12757,10 +12762,10 @@
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>20</v>
@@ -12772,13 +12777,13 @@
         <v>20</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -12829,13 +12834,13 @@
         <v>20</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>20</v>
@@ -12846,10 +12851,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -12857,10 +12862,10 @@
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G117" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H117" t="s" s="2">
         <v>20</v>
@@ -12872,13 +12877,13 @@
         <v>20</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -12905,11 +12910,11 @@
         <v>20</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y117" s="2"/>
       <c r="Z117" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>20</v>
@@ -12927,13 +12932,13 @@
         <v>20</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI117" t="s" s="2">
         <v>20</v>
@@ -12944,10 +12949,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -12955,10 +12960,10 @@
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>20</v>
@@ -12970,13 +12975,13 @@
         <v>20</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -13003,11 +13008,11 @@
         <v>20</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y118" s="2"/>
       <c r="Z118" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>20</v>
@@ -13025,13 +13030,13 @@
         <v>20</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH118" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI118" t="s" s="2">
         <v>20</v>
@@ -13042,10 +13047,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -13053,10 +13058,10 @@
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>20</v>
@@ -13068,13 +13073,13 @@
         <v>20</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -13101,11 +13106,11 @@
         <v>20</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y119" s="2"/>
       <c r="Z119" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>20</v>
@@ -13123,13 +13128,13 @@
         <v>20</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>20</v>
@@ -13140,10 +13145,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -13151,10 +13156,10 @@
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>20</v>
@@ -13166,13 +13171,13 @@
         <v>20</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -13199,11 +13204,11 @@
         <v>20</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y120" s="2"/>
       <c r="Z120" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>20</v>
@@ -13221,13 +13226,13 @@
         <v>20</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>20</v>
@@ -13238,10 +13243,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -13249,10 +13254,10 @@
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>20</v>
@@ -13264,13 +13269,13 @@
         <v>20</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -13321,13 +13326,13 @@
         <v>20</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>20</v>
@@ -13338,10 +13343,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -13349,10 +13354,10 @@
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>20</v>
@@ -13364,13 +13369,13 @@
         <v>20</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -13397,11 +13402,11 @@
         <v>20</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y122" s="2"/>
       <c r="Z122" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>20</v>
@@ -13419,13 +13424,13 @@
         <v>20</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>20</v>
@@ -13436,10 +13441,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -13447,10 +13452,10 @@
       </c>
       <c r="E123" s="2"/>
       <c r="F123" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G123" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H123" t="s" s="2">
         <v>20</v>
@@ -13462,13 +13467,13 @@
         <v>20</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -13519,13 +13524,13 @@
         <v>20</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>20</v>
@@ -13536,10 +13541,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -13547,10 +13552,10 @@
       </c>
       <c r="E124" s="2"/>
       <c r="F124" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H124" t="s" s="2">
         <v>20</v>
@@ -13562,13 +13567,13 @@
         <v>20</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -13595,11 +13600,11 @@
         <v>20</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y124" s="2"/>
       <c r="Z124" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>20</v>
@@ -13617,13 +13622,13 @@
         <v>20</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>20</v>
@@ -13634,10 +13639,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -13645,10 +13650,10 @@
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G125" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H125" t="s" s="2">
         <v>20</v>
@@ -13660,13 +13665,13 @@
         <v>20</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -13717,13 +13722,13 @@
         <v>20</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH125" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>20</v>
@@ -13734,10 +13739,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -13745,10 +13750,10 @@
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>20</v>
@@ -13760,13 +13765,13 @@
         <v>20</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -13793,11 +13798,11 @@
         <v>20</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y126" s="2"/>
       <c r="Z126" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>20</v>
@@ -13815,13 +13820,13 @@
         <v>20</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:48:04+00:00</t>
+    <t>2024-12-17T21:51:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T21:51:05+00:00</t>
+    <t>2024-12-18T15:37:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T15:37:28+00:00</t>
+    <t>2024-12-18T18:58:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T18:58:42+00:00</t>
+    <t>2024-12-19T09:39:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T09:39:03+00:00</t>
+    <t>2024-12-19T10:30:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T10:30:07+00:00</t>
+    <t>2024-12-19T14:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -267,7 +267,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/tb-lab---dst-result-vs</t>
+    <t>http://example.org/ValueSet/TBLABDSTResultVS</t>
   </si>
   <si>
     <t>DiagnosticLaboratoryResults.solidInitialRifampicinRif</t>
@@ -360,7 +360,7 @@
     <t>TB-LAB - Xpert MTB/RIF result - MTB</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/tb-lab---mtb-test-result-vs</t>
+    <t>http://example.org/ValueSet/TBLABMTBTestResultVS</t>
   </si>
   <si>
     <t>DiagnosticLaboratoryResults.xpertMtbRifRif</t>
@@ -369,7 +369,7 @@
     <t>TB-LAB - Xpert MTB/RIF result - Rif</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/susceptible-resistant-indeterminate-vs</t>
+    <t>http://example.org/ValueSet/SusceptibleResistantIndeterminateVS</t>
   </si>
   <si>
     <t>DiagnosticLaboratoryResults.solidCultureSpecimenNumber</t>
@@ -388,7 +388,7 @@
     <t>TB-LAB - Solid culture test result</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/tb-lab---final-culture-result-vs</t>
+    <t>http://example.org/ValueSet/TBLABFinalCultureResultVS</t>
   </si>
   <si>
     <t>DiagnosticLaboratoryResults.smearSpecimenNumber</t>
@@ -779,7 +779,7 @@
     <t>TB-LAB - Microscopy result</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/tb-lab---smear-result-vs</t>
+    <t>http://example.org/ValueSet/TBLABSmearResultVS</t>
   </si>
   <si>
     <t>DiagnosticLaboratoryResults.dateOfCultureInoculationLiquidMedia</t>
@@ -794,7 +794,7 @@
     <t>TB-LAB - SL-LPA specimen type</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/tb-lab---lpa-specimen-vs</t>
+    <t>http://example.org/ValueSet/TBLABLPASpecimenVS</t>
   </si>
   <si>
     <t>DiagnosticLaboratoryResults.dateOfCultureInoculationSolidMedia</t>
@@ -809,7 +809,7 @@
     <t>TB-LAB - Sample quality</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/tb-lab---sample-quality-vs</t>
+    <t>http://example.org/ValueSet/TBLABSampleQualityVS</t>
   </si>
   <si>
     <t>DiagnosticLaboratoryResults.liquidSubsequentRifampicinRif</t>
@@ -836,7 +836,7 @@
     <t>TB-LAB - Sample status</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/tb-lab---sample-status-vs</t>
+    <t>http://example.org/ValueSet/TBLABSampleStatusVS</t>
   </si>
   <si>
     <t>DiagnosticLaboratoryResults.initialDstLmSpecimenNumber</t>
@@ -1367,7 +1367,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="63.0703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.22265625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T14:33:50+00:00</t>
+    <t>2025-01-06T08:12:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T08:12:15+00:00</t>
+    <t>2025-01-06T08:51:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T08:51:53+00:00</t>
+    <t>2025-01-06T11:12:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T11:12:04+00:00</t>
+    <t>2025-01-06T11:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T11:34:04+00:00</t>
+    <t>2025-01-06T11:54:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T11:54:23+00:00</t>
+    <t>2025-01-06T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T12:46:13+00:00</t>
+    <t>2025-01-06T13:14:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:14:19+00:00</t>
+    <t>2025-01-06T13:23:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:23:20+00:00</t>
+    <t>2025-01-06T13:44:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:44:48+00:00</t>
+    <t>2025-01-06T13:48:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T13:48:57+00:00</t>
+    <t>2025-01-06T14:12:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T14:12:01+00:00</t>
+    <t>2025-01-06T14:45:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T14:45:14+00:00</t>
+    <t>2025-01-07T09:00:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3871" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3873" uniqueCount="338">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T09:00:06+00:00</t>
+    <t>2025-01-07T09:54:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -252,6 +252,9 @@
   <si>
     <t xml:space="preserve">date
 </t>
+  </si>
+  <si>
+    <t>Execution date</t>
   </si>
   <si>
     <t>DiagnosticLaboratoryResults.solidInitialIsoniazidCriticalConcentrationInhCc</t>
@@ -1619,8 +1622,12 @@
       <c r="K3" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="L3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M3" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1687,10 +1694,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1713,13 +1720,13 @@
         <v>20</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1746,11 +1753,11 @@
         <v>20</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>20</v>
@@ -1768,7 +1775,7 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>72</v>
@@ -1785,10 +1792,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1811,13 +1818,13 @@
         <v>20</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1844,11 +1851,11 @@
         <v>20</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>20</v>
@@ -1866,7 +1873,7 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>72</v>
@@ -1883,10 +1890,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1909,13 +1916,13 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1942,11 +1949,11 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>20</v>
@@ -1964,7 +1971,7 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>72</v>
@@ -1981,10 +1988,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2007,13 +2014,13 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -2040,11 +2047,11 @@
         <v>20</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y7" s="2"/>
       <c r="Z7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA7" t="s" s="2">
         <v>20</v>
@@ -2062,7 +2069,7 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>72</v>
@@ -2079,10 +2086,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2105,13 +2112,13 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2138,11 +2145,11 @@
         <v>20</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y8" s="2"/>
       <c r="Z8" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA8" t="s" s="2">
         <v>20</v>
@@ -2160,7 +2167,7 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>72</v>
@@ -2177,10 +2184,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2203,13 +2210,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2236,11 +2243,11 @@
         <v>20</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>20</v>
@@ -2258,7 +2265,7 @@
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>72</v>
@@ -2275,10 +2282,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2301,13 +2308,13 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2334,11 +2341,11 @@
         <v>20</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y10" s="2"/>
       <c r="Z10" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>20</v>
@@ -2356,7 +2363,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>72</v>
@@ -2373,10 +2380,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2399,13 +2406,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2432,11 +2439,11 @@
         <v>20</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y11" s="2"/>
       <c r="Z11" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>20</v>
@@ -2454,7 +2461,7 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>72</v>
@@ -2471,10 +2478,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2497,13 +2504,13 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2530,11 +2537,11 @@
         <v>20</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>20</v>
@@ -2552,7 +2559,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>72</v>
@@ -2569,10 +2576,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2595,13 +2602,13 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2628,11 +2635,11 @@
         <v>20</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>20</v>
@@ -2650,7 +2657,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>72</v>
@@ -2667,10 +2674,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2693,13 +2700,13 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2726,11 +2733,11 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>20</v>
@@ -2748,7 +2755,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>72</v>
@@ -2765,10 +2772,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2791,13 +2798,13 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2824,11 +2831,11 @@
         <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>20</v>
@@ -2846,7 +2853,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>72</v>
@@ -2863,10 +2870,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2889,13 +2896,13 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2922,11 +2929,11 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
@@ -2944,7 +2951,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>72</v>
@@ -2961,10 +2968,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2990,10 +2997,10 @@
         <v>78</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3044,7 +3051,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>72</v>
@@ -3061,10 +3068,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3090,10 +3097,10 @@
         <v>78</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3144,7 +3151,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>72</v>
@@ -3161,10 +3168,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3187,13 +3194,13 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3220,11 +3227,11 @@
         <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>20</v>
@@ -3242,7 +3249,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>72</v>
@@ -3259,10 +3266,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3285,13 +3292,13 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3318,11 +3325,11 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
@@ -3340,7 +3347,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>72</v>
@@ -3357,10 +3364,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3383,13 +3390,13 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3440,7 +3447,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>72</v>
@@ -3457,10 +3464,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3483,13 +3490,13 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3516,11 +3523,11 @@
         <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>20</v>
@@ -3538,7 +3545,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>72</v>
@@ -3555,10 +3562,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3581,13 +3588,13 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3638,7 +3645,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>72</v>
@@ -3655,10 +3662,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3681,13 +3688,13 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3738,7 +3745,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>72</v>
@@ -3755,10 +3762,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3784,10 +3791,10 @@
         <v>78</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3838,7 +3845,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>72</v>
@@ -3855,10 +3862,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3881,13 +3888,13 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3938,7 +3945,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>72</v>
@@ -3955,10 +3962,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3981,13 +3988,13 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4038,7 +4045,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>72</v>
@@ -4055,10 +4062,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4081,13 +4088,13 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4138,7 +4145,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>72</v>
@@ -4155,10 +4162,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4181,13 +4188,13 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4238,7 +4245,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>72</v>
@@ -4255,10 +4262,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4281,13 +4288,13 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4338,7 +4345,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>72</v>
@@ -4355,10 +4362,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4381,13 +4388,13 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4438,7 +4445,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>72</v>
@@ -4455,10 +4462,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4481,13 +4488,13 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4538,7 +4545,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>72</v>
@@ -4555,10 +4562,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4581,13 +4588,13 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -4638,7 +4645,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>72</v>
@@ -4655,10 +4662,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4681,13 +4688,13 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4738,7 +4745,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>72</v>
@@ -4755,10 +4762,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4784,10 +4791,10 @@
         <v>78</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4838,7 +4845,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>72</v>
@@ -4855,10 +4862,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4881,13 +4888,13 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4938,7 +4945,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>72</v>
@@ -4955,10 +4962,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4984,10 +4991,10 @@
         <v>78</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5038,7 +5045,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>72</v>
@@ -5055,10 +5062,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5081,13 +5088,13 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5114,11 +5121,11 @@
         <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -5136,7 +5143,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>72</v>
@@ -5153,10 +5160,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5179,13 +5186,13 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5212,11 +5219,11 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -5234,7 +5241,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>72</v>
@@ -5251,10 +5258,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5280,10 +5287,10 @@
         <v>78</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5334,7 +5341,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>72</v>
@@ -5351,10 +5358,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5377,13 +5384,13 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5410,11 +5417,11 @@
         <v>20</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>20</v>
@@ -5432,7 +5439,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>72</v>
@@ -5449,10 +5456,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5475,13 +5482,13 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5532,7 +5539,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>72</v>
@@ -5549,10 +5556,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5575,13 +5582,13 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -5608,11 +5615,11 @@
         <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
@@ -5630,7 +5637,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>72</v>
@@ -5647,10 +5654,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5673,13 +5680,13 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5706,11 +5713,11 @@
         <v>20</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>20</v>
@@ -5728,7 +5735,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>72</v>
@@ -5745,10 +5752,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5771,13 +5778,13 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -5804,11 +5811,11 @@
         <v>20</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>20</v>
@@ -5826,7 +5833,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>72</v>
@@ -5843,10 +5850,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5869,13 +5876,13 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -5902,11 +5909,11 @@
         <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>20</v>
@@ -5924,7 +5931,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>72</v>
@@ -5941,10 +5948,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -5967,13 +5974,13 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6000,11 +6007,11 @@
         <v>20</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>20</v>
@@ -6022,7 +6029,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>72</v>
@@ -6039,10 +6046,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6065,13 +6072,13 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6098,11 +6105,11 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -6120,7 +6127,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>72</v>
@@ -6137,10 +6144,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6163,13 +6170,13 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6196,11 +6203,11 @@
         <v>20</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>20</v>
@@ -6218,7 +6225,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>72</v>
@@ -6235,10 +6242,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6261,13 +6268,13 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6294,11 +6301,11 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -6316,7 +6323,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>72</v>
@@ -6333,10 +6340,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6359,13 +6366,13 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6392,11 +6399,11 @@
         <v>20</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>20</v>
@@ -6414,7 +6421,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>72</v>
@@ -6431,10 +6438,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6457,13 +6464,13 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6490,11 +6497,11 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -6512,7 +6519,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>72</v>
@@ -6529,10 +6536,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -6555,13 +6562,13 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -6588,11 +6595,11 @@
         <v>20</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>20</v>
@@ -6610,7 +6617,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>72</v>
@@ -6627,10 +6634,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -6653,13 +6660,13 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -6686,11 +6693,11 @@
         <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>20</v>
@@ -6708,7 +6715,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>72</v>
@@ -6725,10 +6732,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -6751,13 +6758,13 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -6784,11 +6791,11 @@
         <v>20</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>20</v>
@@ -6806,7 +6813,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>72</v>
@@ -6823,10 +6830,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -6852,10 +6859,10 @@
         <v>78</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -6906,7 +6913,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>72</v>
@@ -6923,10 +6930,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -6952,10 +6959,10 @@
         <v>78</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7006,7 +7013,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>72</v>
@@ -7023,10 +7030,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7052,10 +7059,10 @@
         <v>78</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -7106,7 +7113,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>72</v>
@@ -7123,10 +7130,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7149,13 +7156,13 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7182,11 +7189,11 @@
         <v>20</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>20</v>
@@ -7204,7 +7211,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>72</v>
@@ -7221,10 +7228,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7247,13 +7254,13 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -7280,11 +7287,11 @@
         <v>20</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>20</v>
@@ -7302,7 +7309,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>72</v>
@@ -7319,10 +7326,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7345,13 +7352,13 @@
         <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -7378,11 +7385,11 @@
         <v>20</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>20</v>
@@ -7400,7 +7407,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>72</v>
@@ -7417,10 +7424,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7446,10 +7453,10 @@
         <v>78</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -7500,7 +7507,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>72</v>
@@ -7517,10 +7524,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -7546,10 +7553,10 @@
         <v>78</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -7600,7 +7607,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>72</v>
@@ -7617,10 +7624,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -7643,13 +7650,13 @@
         <v>20</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -7676,11 +7683,11 @@
         <v>20</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>20</v>
@@ -7698,7 +7705,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>72</v>
@@ -7715,10 +7722,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -7741,13 +7748,13 @@
         <v>20</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -7798,7 +7805,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>72</v>
@@ -7815,10 +7822,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -7841,13 +7848,13 @@
         <v>20</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -7874,11 +7881,11 @@
         <v>20</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>20</v>
@@ -7896,7 +7903,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>72</v>
@@ -7913,10 +7920,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -7939,13 +7946,13 @@
         <v>20</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -7972,11 +7979,11 @@
         <v>20</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>20</v>
@@ -7994,7 +8001,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>72</v>
@@ -8011,10 +8018,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8037,13 +8044,13 @@
         <v>20</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -8070,11 +8077,11 @@
         <v>20</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y68" s="2"/>
       <c r="Z68" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>20</v>
@@ -8092,7 +8099,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>72</v>
@@ -8109,10 +8116,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8135,13 +8142,13 @@
         <v>20</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8168,11 +8175,11 @@
         <v>20</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>20</v>
@@ -8190,7 +8197,7 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>72</v>
@@ -8207,10 +8214,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8233,13 +8240,13 @@
         <v>20</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -8266,11 +8273,11 @@
         <v>20</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y70" s="2"/>
       <c r="Z70" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>20</v>
@@ -8288,7 +8295,7 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>72</v>
@@ -8305,10 +8312,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -8331,13 +8338,13 @@
         <v>20</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -8364,11 +8371,11 @@
         <v>20</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>20</v>
@@ -8386,7 +8393,7 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>72</v>
@@ -8403,10 +8410,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -8429,13 +8436,13 @@
         <v>20</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -8462,11 +8469,11 @@
         <v>20</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>20</v>
@@ -8484,7 +8491,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>72</v>
@@ -8501,10 +8508,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -8527,13 +8534,13 @@
         <v>20</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -8560,11 +8567,11 @@
         <v>20</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y73" s="2"/>
       <c r="Z73" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>20</v>
@@ -8582,7 +8589,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>72</v>
@@ -8599,10 +8606,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -8625,13 +8632,13 @@
         <v>20</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -8682,7 +8689,7 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>72</v>
@@ -8699,10 +8706,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -8725,13 +8732,13 @@
         <v>20</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -8782,7 +8789,7 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>72</v>
@@ -8799,10 +8806,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -8825,13 +8832,13 @@
         <v>20</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -8858,11 +8865,11 @@
         <v>20</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y76" s="2"/>
       <c r="Z76" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>20</v>
@@ -8880,7 +8887,7 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>72</v>
@@ -8897,10 +8904,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -8923,13 +8930,13 @@
         <v>20</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -8956,11 +8963,11 @@
         <v>20</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y77" s="2"/>
       <c r="Z77" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>20</v>
@@ -8978,7 +8985,7 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>72</v>
@@ -8995,10 +9002,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -9021,13 +9028,13 @@
         <v>20</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -9054,11 +9061,11 @@
         <v>20</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y78" s="2"/>
       <c r="Z78" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>20</v>
@@ -9076,7 +9083,7 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>72</v>
@@ -9093,10 +9100,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9119,13 +9126,13 @@
         <v>20</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -9152,11 +9159,11 @@
         <v>20</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y79" s="2"/>
       <c r="Z79" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>20</v>
@@ -9174,7 +9181,7 @@
         <v>20</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>72</v>
@@ -9191,10 +9198,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -9217,13 +9224,13 @@
         <v>20</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -9250,11 +9257,11 @@
         <v>20</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>20</v>
@@ -9272,7 +9279,7 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>72</v>
@@ -9289,10 +9296,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -9315,13 +9322,13 @@
         <v>20</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -9348,11 +9355,11 @@
         <v>20</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y81" s="2"/>
       <c r="Z81" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>20</v>
@@ -9370,7 +9377,7 @@
         <v>20</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>72</v>
@@ -9387,10 +9394,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -9416,10 +9423,10 @@
         <v>78</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -9470,7 +9477,7 @@
         <v>20</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>72</v>
@@ -9487,10 +9494,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -9516,10 +9523,10 @@
         <v>78</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -9570,7 +9577,7 @@
         <v>20</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>72</v>
@@ -9587,10 +9594,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -9613,13 +9620,13 @@
         <v>20</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -9646,11 +9653,11 @@
         <v>20</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y84" s="2"/>
       <c r="Z84" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>20</v>
@@ -9668,7 +9675,7 @@
         <v>20</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>72</v>
@@ -9685,10 +9692,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -9711,13 +9718,13 @@
         <v>20</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -9768,7 +9775,7 @@
         <v>20</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>72</v>
@@ -9785,10 +9792,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -9811,13 +9818,13 @@
         <v>20</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -9844,11 +9851,11 @@
         <v>20</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y86" s="2"/>
       <c r="Z86" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>20</v>
@@ -9866,7 +9873,7 @@
         <v>20</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>72</v>
@@ -9883,10 +9890,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -9912,10 +9919,10 @@
         <v>78</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -9966,7 +9973,7 @@
         <v>20</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>72</v>
@@ -9983,10 +9990,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -10009,13 +10016,13 @@
         <v>20</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -10042,11 +10049,11 @@
         <v>20</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y88" s="2"/>
       <c r="Z88" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>20</v>
@@ -10064,7 +10071,7 @@
         <v>20</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>72</v>
@@ -10081,10 +10088,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -10110,10 +10117,10 @@
         <v>78</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -10164,7 +10171,7 @@
         <v>20</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>72</v>
@@ -10181,10 +10188,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -10207,13 +10214,13 @@
         <v>20</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -10240,11 +10247,11 @@
         <v>20</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y90" s="2"/>
       <c r="Z90" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>20</v>
@@ -10262,7 +10269,7 @@
         <v>20</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>72</v>
@@ -10279,10 +10286,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -10305,13 +10312,13 @@
         <v>20</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -10338,11 +10345,11 @@
         <v>20</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y91" s="2"/>
       <c r="Z91" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>20</v>
@@ -10360,7 +10367,7 @@
         <v>20</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>72</v>
@@ -10377,10 +10384,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -10403,13 +10410,13 @@
         <v>20</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -10460,7 +10467,7 @@
         <v>20</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>72</v>
@@ -10477,10 +10484,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -10503,13 +10510,13 @@
         <v>20</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -10536,11 +10543,11 @@
         <v>20</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y93" s="2"/>
       <c r="Z93" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>20</v>
@@ -10558,7 +10565,7 @@
         <v>20</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>72</v>
@@ -10575,10 +10582,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -10601,13 +10608,13 @@
         <v>20</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -10634,11 +10641,11 @@
         <v>20</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y94" s="2"/>
       <c r="Z94" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>20</v>
@@ -10656,7 +10663,7 @@
         <v>20</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>72</v>
@@ -10673,10 +10680,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -10699,13 +10706,13 @@
         <v>20</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -10756,7 +10763,7 @@
         <v>20</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>72</v>
@@ -10773,10 +10780,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -10799,13 +10806,13 @@
         <v>20</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -10832,11 +10839,11 @@
         <v>20</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y96" s="2"/>
       <c r="Z96" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>20</v>
@@ -10854,7 +10861,7 @@
         <v>20</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>72</v>
@@ -10871,10 +10878,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -10897,13 +10904,13 @@
         <v>20</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -10930,11 +10937,11 @@
         <v>20</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y97" s="2"/>
       <c r="Z97" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>20</v>
@@ -10952,7 +10959,7 @@
         <v>20</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>72</v>
@@ -10969,10 +10976,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -10995,13 +11002,13 @@
         <v>20</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -11052,7 +11059,7 @@
         <v>20</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>72</v>
@@ -11069,10 +11076,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -11095,13 +11102,13 @@
         <v>20</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -11128,11 +11135,11 @@
         <v>20</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y99" s="2"/>
       <c r="Z99" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>20</v>
@@ -11150,7 +11157,7 @@
         <v>20</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>72</v>
@@ -11167,10 +11174,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -11193,13 +11200,13 @@
         <v>20</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -11226,11 +11233,11 @@
         <v>20</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y100" s="2"/>
       <c r="Z100" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>20</v>
@@ -11248,7 +11255,7 @@
         <v>20</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>72</v>
@@ -11265,10 +11272,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -11291,13 +11298,13 @@
         <v>20</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -11348,7 +11355,7 @@
         <v>20</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>72</v>
@@ -11365,10 +11372,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -11391,13 +11398,13 @@
         <v>20</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -11448,7 +11455,7 @@
         <v>20</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>72</v>
@@ -11465,10 +11472,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -11491,13 +11498,13 @@
         <v>20</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -11548,7 +11555,7 @@
         <v>20</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>72</v>
@@ -11565,10 +11572,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -11591,13 +11598,13 @@
         <v>20</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -11624,11 +11631,11 @@
         <v>20</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y104" s="2"/>
       <c r="Z104" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>20</v>
@@ -11646,7 +11653,7 @@
         <v>20</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>72</v>
@@ -11663,10 +11670,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -11689,13 +11696,13 @@
         <v>20</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -11722,11 +11729,11 @@
         <v>20</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y105" s="2"/>
       <c r="Z105" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>20</v>
@@ -11744,7 +11751,7 @@
         <v>20</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>72</v>
@@ -11761,10 +11768,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -11790,10 +11797,10 @@
         <v>78</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -11844,7 +11851,7 @@
         <v>20</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>72</v>
@@ -11861,10 +11868,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -11887,13 +11894,13 @@
         <v>20</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -11920,11 +11927,11 @@
         <v>20</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y107" s="2"/>
       <c r="Z107" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA107" t="s" s="2">
         <v>20</v>
@@ -11942,7 +11949,7 @@
         <v>20</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>72</v>
@@ -11959,10 +11966,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -11985,13 +11992,13 @@
         <v>20</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
@@ -12042,7 +12049,7 @@
         <v>20</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>72</v>
@@ -12059,10 +12066,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -12085,13 +12092,13 @@
         <v>20</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -12142,7 +12149,7 @@
         <v>20</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>72</v>
@@ -12159,10 +12166,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -12185,13 +12192,13 @@
         <v>20</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -12218,11 +12225,11 @@
         <v>20</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y110" s="2"/>
       <c r="Z110" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>20</v>
@@ -12240,7 +12247,7 @@
         <v>20</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>72</v>
@@ -12257,10 +12264,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -12286,10 +12293,10 @@
         <v>78</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -12340,7 +12347,7 @@
         <v>20</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>72</v>
@@ -12357,10 +12364,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -12383,13 +12390,13 @@
         <v>20</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -12416,11 +12423,11 @@
         <v>20</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y112" s="2"/>
       <c r="Z112" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>20</v>
@@ -12438,7 +12445,7 @@
         <v>20</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>72</v>
@@ -12455,10 +12462,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -12481,13 +12488,13 @@
         <v>20</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -12514,11 +12521,11 @@
         <v>20</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y113" s="2"/>
       <c r="Z113" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>20</v>
@@ -12536,7 +12543,7 @@
         <v>20</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>72</v>
@@ -12553,10 +12560,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -12579,13 +12586,13 @@
         <v>20</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -12636,7 +12643,7 @@
         <v>20</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>72</v>
@@ -12653,10 +12660,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -12679,13 +12686,13 @@
         <v>20</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -12712,11 +12719,11 @@
         <v>20</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y115" s="2"/>
       <c r="Z115" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>20</v>
@@ -12734,7 +12741,7 @@
         <v>20</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>72</v>
@@ -12751,10 +12758,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -12777,13 +12784,13 @@
         <v>20</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -12834,7 +12841,7 @@
         <v>20</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>72</v>
@@ -12851,10 +12858,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -12877,13 +12884,13 @@
         <v>20</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -12910,11 +12917,11 @@
         <v>20</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y117" s="2"/>
       <c r="Z117" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>20</v>
@@ -12932,7 +12939,7 @@
         <v>20</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>72</v>
@@ -12949,10 +12956,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -12975,13 +12982,13 @@
         <v>20</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -13008,11 +13015,11 @@
         <v>20</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y118" s="2"/>
       <c r="Z118" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA118" t="s" s="2">
         <v>20</v>
@@ -13030,7 +13037,7 @@
         <v>20</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>72</v>
@@ -13047,10 +13054,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -13073,13 +13080,13 @@
         <v>20</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -13106,11 +13113,11 @@
         <v>20</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y119" s="2"/>
       <c r="Z119" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA119" t="s" s="2">
         <v>20</v>
@@ -13128,7 +13135,7 @@
         <v>20</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>72</v>
@@ -13145,10 +13152,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -13171,13 +13178,13 @@
         <v>20</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -13204,11 +13211,11 @@
         <v>20</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y120" s="2"/>
       <c r="Z120" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>20</v>
@@ -13226,7 +13233,7 @@
         <v>20</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>72</v>
@@ -13243,10 +13250,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -13272,10 +13279,10 @@
         <v>78</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -13326,7 +13333,7 @@
         <v>20</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>72</v>
@@ -13343,10 +13350,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -13369,13 +13376,13 @@
         <v>20</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -13402,11 +13409,11 @@
         <v>20</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y122" s="2"/>
       <c r="Z122" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>20</v>
@@ -13424,7 +13431,7 @@
         <v>20</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>72</v>
@@ -13441,10 +13448,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -13467,13 +13474,13 @@
         <v>20</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -13524,7 +13531,7 @@
         <v>20</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>72</v>
@@ -13541,10 +13548,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -13567,13 +13574,13 @@
         <v>20</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -13600,11 +13607,11 @@
         <v>20</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y124" s="2"/>
       <c r="Z124" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA124" t="s" s="2">
         <v>20</v>
@@ -13622,7 +13629,7 @@
         <v>20</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>72</v>
@@ -13639,10 +13646,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -13668,10 +13675,10 @@
         <v>78</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -13722,7 +13729,7 @@
         <v>20</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>72</v>
@@ -13739,10 +13746,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -13765,13 +13772,13 @@
         <v>20</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -13798,11 +13805,11 @@
         <v>20</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y126" s="2"/>
       <c r="Z126" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA126" t="s" s="2">
         <v>20</v>
@@ -13820,7 +13827,7 @@
         <v>20</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>72</v>

--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T09:54:37+00:00</t>
+    <t>2025-01-07T10:22:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T10:22:04+00:00</t>
+    <t>2025-01-08T13:44:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T13:44:33+00:00</t>
+    <t>2025-01-08T14:12:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T14:12:29+00:00</t>
+    <t>2025-01-08T14:51:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T14:51:23+00:00</t>
+    <t>2025-01-08T15:06:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T15:06:16+00:00</t>
+    <t>2025-01-09T10:44:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T10:44:33+00:00</t>
+    <t>2025-01-09T11:45:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T11:45:34+00:00</t>
+    <t>2025-01-09T13:22:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T13:22:59+00:00</t>
+    <t>2025-01-20T11:09:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DiagnosticLaboratoryResults.xlsx
+++ b/StructureDefinition-DiagnosticLaboratoryResults.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T11:09:19+00:00</t>
+    <t>2025-02-10T09:39:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
